--- a/fuentes/contenidos/grado08/guion07/CS_08_07_REC10_SolicitudGrafica.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_REC10_SolicitudGrafica.xlsx
@@ -1648,6 +1648,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,10 +1749,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2588,8 +2588,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2635,14 +2635,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="88"/>
+      <c r="F2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2666,14 +2666,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="89">
         <v>8</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
+      <c r="D3" s="90"/>
+      <c r="F3" s="82">
         <v>42451</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2697,10 +2697,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2729,10 +2729,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2816,12 +2816,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2927,7 +2927,7 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="78" t="s">
         <v>194</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -3017,7 +3017,7 @@
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="79" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="20" t="str">
@@ -6189,25 +6189,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
@@ -6215,11 +6215,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6270,11 +6270,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6319,12 +6319,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6418,14 +6418,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6458,12 +6458,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6503,12 +6503,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6524,12 +6524,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6920,40 +6920,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
